--- a/planilha/controle.xlsx
+++ b/planilha/controle.xlsx
@@ -371,7 +371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="I26" sqref="I26"/>
@@ -1546,10 +1546,499 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
           <t>C:\pytscript\tests\AREA_INTERESSE2.shp</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CAPANEMA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>REGULARIZAÇÃO NÃO ONEROSA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>FULANO DA SILVA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>SÍTIO SOLIDÁRIO</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TERCEIROS</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>26/07/2024</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>NÃO CONSTA</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>SA.23-V-C-II</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>ZEE: CONSOLIDAÇÃO I</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>C:\pytscript\tests\AREA_INTERESSE2.shp</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SÃO FRANCISCO DO PARÁ</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CERTIDÃO</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12121996</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>FRANCISCO ROBERVALDO PERREIRA NETO</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>SÍTIO DAS RODÓVIAS</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ITERPA</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>26/07/2024</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ENTRE BR-316 E PA-014</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>SA.23-V-C-I</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>ZEE: CONSOLIDAÇÃO II</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>C:\github\ArcpyAutoMap\tests\sao_francisco_do_para.shp</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SÃO FRANCISCO DO PARÁ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CERTIDÃO</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>12121996</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>FRANCISCO ROBERVALDO PERREIRA NETO</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>SÍTIO DAS RODÓVIAS</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ITERPA</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>26/07/2024</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ENTRE BR-316 E PA-014</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>SA.23-V-C-I</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>ZEE: CONSOLIDAÇÃO II</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>C:\github\ArcpyAutoMap\tests\sao_francisco_do_para.shp</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SÃO FRANCISCO DO PARÁ</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CERTIDÃO</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12121996</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>FRANCISCO ROBERVALDO PERREIRA NETO</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>SÍTIO DAS RODÓVIAS</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ITERPA</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>26/07/2024</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ENTRE BR-316 E PA-014</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>SA.23-V-C-I</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>ZEE: CONSOLIDAÇÃO II</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>C:\github\ArcpyAutoMap\tests\sao_francisco_do_para.shp</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CASTANHAL</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>REGULARIZAÇÃO ONEROSA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>552211</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>GABRIELA MONTEIRO LOBATO</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>SÍTIO DAS CASTANHEIRAS</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>SICAR/SEMAS</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>26/07/2024</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>PROXIMO A BR-316</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>SA.23-V-C-I</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>ZEE: CONSOLIDAÇÃO I</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>C:\github\ArcpyAutoMap\tests\castanhal.shp</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CASTANHAL</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>REGULARIZAÇÃO ONEROSA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>552211</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>GABRIELA MONTEIRO LOBATO</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SÍTIO DAS CASTANHEIRAS</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>SICAR/SEMAS</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>26/07/2024</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>PROXIMO A BR-316</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>SA.23-V-C-I</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>ZEE: CONSOLIDAÇÃO I</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>C:\github\ArcpyAutoMap\tests\castanhal.shp</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CASTANHAL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>REGULARIZAÇÃO ONEROSA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>543210</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>FULANO DA COSTA PERREIRA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>IMÓVEL 3 MARIAS</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>SIGEF/INCRA</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>26/07/2024</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>NENHUM COMPLEMENTO</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>SA.23-V-C-I</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>ZEE: CONSOLIDAÇÃO I</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>C:\github\ArcpyAutoMap\tests\castanhal.shp</t>
         </is>
       </c>
     </row>

--- a/planilha/controle.xlsx
+++ b/planilha/controle.xlsx
@@ -371,7 +371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="I26" sqref="I26"/>
@@ -2042,6 +2042,496 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IGARAPÉ-AÇU</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>REGULARIZAÇÃO NÃO ONEROSA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>19551212</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>MICHEAL JACKSON COSTA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>SÍTIO DA SAUDADE</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>SICARF</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>27/07/2024</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>NADA CONSTA</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>SA.23-V-C-I</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>ZEE: AMBIENTALMENTE SENSÍVEL, ZEE: CONSOLIDAÇÃO II</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>C:\github\ArcpyAutoMap\tests\igarape_acu.shp</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PEIXE-BOI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>REGULARIZAÇÃO NÃO ONEROSA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>102050</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>PEDRO PAULO PERREIRA PINHO</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>PEIXINHO FELIZ</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>SIGEF/INCRA</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>27/07/2024</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>SEM COMPLEMENTO</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>SA.23-V-C-II</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>ZEE: AMBIENTALMENTE SENSÍVEL, ZEE: CONSOLIDAÇÃO II</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>C:\github\ArcpyAutoMap\tests\peixeiboi.shp</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PEIXE-BOI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>REGULARIZAÇÃO NÃO ONEROSA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>102050</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>PEDRO PAULO PERREIRA PINHO</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>PEIXINHO FELIZ</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>SIGEF/INCRA</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>27/07/2024</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>SEM COMPLEMENTO</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>SA.23-V-C-II</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>ZEE: AMBIENTALMENTE SENSÍVEL, ZEE: CONSOLIDAÇÃO II</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>C:\github\ArcpyAutoMap\tests\peixeiboi.shp</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PEIXE-BOI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>REGULARIZAÇÃO NÃO ONEROSA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>102050</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>PEDRO PAULO PERREIRA PINHO</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>PEIXINHO FELIZ</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>SIGEF/INCRA</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>27/07/2024</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>SEM COMPLEMENTO</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>SA.23-V-C-II</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>ZEE: AMBIENTALMENTE SENSÍVEL, ZEE: CONSOLIDAÇÃO II</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>C:\github\ArcpyAutoMap\tests\peixeiboi.shp</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>IGARAPÉ-AÇU</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>REGULARIZAÇÃO NÃO ONEROSA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>302010</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>MARIA DAS DORES</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>AQUÁRIOS FELIX</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>SIGEF/INCRA</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>27/07/2024</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>SEM COMPLEMENTO</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>SA.23-V-C-I</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>ZEE: AMBIENTALMENTE SENSÍVEL, ZEE: CONSOLIDAÇÃO II</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>C:\github\ArcpyAutoMap\tests\igarape_acu.shp</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>IGARAPÉ-AÇU</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>REGULARIZAÇÃO NÃO ONEROSA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>302010</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>MARIA DAS DORES</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>AQUÁRIOS FELIX</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>SIGEF/INCRA</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>27/07/2024</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>SEM COMPLEMENTO</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>SA.23-V-C-I</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>ZEE: AMBIENTALMENTE SENSÍVEL, ZEE: CONSOLIDAÇÃO II</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>C:\github\ArcpyAutoMap\tests\igarape_acu.shp</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BONITO</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AFORAMENTO</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5462135</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>CLODISNEY ROBERVALDERSON SANTOS</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FAZENDA CASTANHA DO PARÁ</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>NÃO POSSUI</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>27/07/2024</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>DIVISA PEIXE-BOI E CAPANEMA</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>SA.23-V-C-II</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>ZEE: CONSOLIDAÇÃO II</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>C:\github\ArcpyAutoMap\tests\bonito.shp</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.31496062" header="0.31496062" left="0.511811024" right="0.511811024" top="0.787401575"/>
 </worksheet>

--- a/planilha/controle.xlsx
+++ b/planilha/controle.xlsx
@@ -371,7 +371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2:XFD32"/>
@@ -537,6 +537,76 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INHANGAPI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>REGULARIZAÇÃO NÃO ONEROSA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7654321</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>FULANO DA SILVA COSTA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SÍTIO SOLIDÁRIO</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>TERCEIROS</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>29/07/2024</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NADA CONSTA</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>SA.22-X-D-III, SA.22-X-D-VI, SA.23-V-C-I</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>ZEE: AMBIENTALMENTE SENSÍVEL, ZEE: MASSA D'ÁGUA</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>C:\Users\djalm\Documents\qgis_teste\New_Shapefile.shp</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.31496062" header="0.31496062" left="0.511811024" right="0.511811024" top="0.787401575"/>
 </worksheet>

--- a/planilha/controle.xlsx
+++ b/planilha/controle.xlsx
@@ -1,48 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ArcpyAutoMap\planilha\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13620" windowWidth="28800" xWindow="930" yWindow="0"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="13620"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dado_bruto" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="dado_bruto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>MUNICIPIO</t>
+  </si>
+  <si>
+    <t>SITUAÇÃO</t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>NUMERO</t>
+  </si>
+  <si>
+    <t>INTERESSADO</t>
+  </si>
+  <si>
+    <t>IMOVEL</t>
+  </si>
+  <si>
+    <t>PARCELA</t>
+  </si>
+  <si>
+    <t>GEORREF</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>COMPLEMENTO</t>
+  </si>
+  <si>
+    <t>CARTA</t>
+  </si>
+  <si>
+    <t>ZEE</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,23 +135,32 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="23" name="Célula de Verificação" xfId="1"/>
+    <cellStyle name="Célula de Verificação" xfId="1" builtinId="23"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -366,248 +426,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A2" sqref="A2:XFD32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="2.85546875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="25"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="30.140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="5.140625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="10"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="35.85546875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="27.85546875"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="8.85546875"/>
-    <col customWidth="1" max="9" min="9" width="14.42578125"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="19.28515625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" width="11.7109375"/>
-    <col customWidth="1" max="12" min="12" width="14.28515625"/>
-    <col customWidth="1" max="13" min="13" width="16.5703125"/>
-    <col customWidth="1" max="14" min="14" width="255.5703125"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="255.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" thickBot="1" thickTop="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MUNICIPIO</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SITUAÇÃO</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ANO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>NUMERO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>INTERESSADO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>IMOVEL</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>PARCELA</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>GEORREF</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>DATA</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>COMPLEMENTO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>CARTA</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ZEE</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>PATH</t>
-        </is>
+    <row r="1" spans="1:14" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" thickTop="1">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SÃO FRANCISCO DO PARÁ</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>PROTOCOLO DE SOLICITAÇÃO DE ACESSO À INFORMAÇÃO</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>191919</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MARIA DAS DORES AREIA LEÃO DE SOUSA</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>FAZENDA COLARES</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SICAR/SEMAS</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>SEM COMPLEMENTO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>SA.23-V-C-I</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>ZEE: CONSOLIDAÇÃO II</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>C:\github\ArcpyAutoMap\tests\sao_francisco_do_para.shp</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>INHANGAPI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REGULARIZAÇÃO NÃO ONEROSA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7654321</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>FULANO DA SILVA COSTA</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>SÍTIO SOLIDÁRIO</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>TERCEIROS</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>29/07/2024</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NADA CONSTA</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>SA.22-X-D-III, SA.22-X-D-VI, SA.23-V-C-I</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>ZEE: AMBIENTALMENTE SENSÍVEL, ZEE: MASSA D'ÁGUA</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>C:\Users\djalm\Documents\qgis_teste\New_Shapefile.shp</t>
-        </is>
-      </c>
-    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins bottom="0.787401575" footer="0.31496062" header="0.31496062" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/planilha/controle.xlsx
+++ b/planilha/controle.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +61,294 @@
   </si>
   <si>
     <t>PATH</t>
+  </si>
+  <si>
+    <t>REGULARIZAÇÃO NÃO ONEROSA</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>FULANO DA SILVA COSTA PERREIRA</t>
+  </si>
+  <si>
+    <t>ITERPA</t>
+  </si>
+  <si>
+    <t>13/08/2024</t>
+  </si>
+  <si>
+    <t>PROXIMO A PA-124</t>
+  </si>
+  <si>
+    <t>SA.23-V-C-II</t>
+  </si>
+  <si>
+    <t>ZEE: CONSOLIDAÇÃO I</t>
+  </si>
+  <si>
+    <t>C:\github\ArcpyAutoMapBACKUP\tests\AREA_INTERESSE2.shp</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>000043</t>
+  </si>
+  <si>
+    <t>CICLANO GOMEZ COSTA</t>
+  </si>
+  <si>
+    <t>NÃO POSSUI</t>
+  </si>
+  <si>
+    <t>SEM COMPLEMENTO</t>
+  </si>
+  <si>
+    <t>ZEE: AMBIENTALMENTE SENSÍVEL, ZEE: CONSOLIDAÇÃO II</t>
+  </si>
+  <si>
+    <t>C:\github\ArcpyAutoMapBACKUP\tests\peixeiboi.shp</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>765432</t>
+  </si>
+  <si>
+    <t>SILVA E SILVA DA SILVA</t>
+  </si>
+  <si>
+    <t>NÃO CONSTA</t>
+  </si>
+  <si>
+    <t>Ananindeua</t>
+  </si>
+  <si>
+    <t>Oliveira</t>
+  </si>
+  <si>
+    <t>17'</t>
+  </si>
+  <si>
+    <t>32"</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>049°</t>
+  </si>
+  <si>
+    <t>12'</t>
+  </si>
+  <si>
+    <t>11"</t>
+  </si>
+  <si>
+    <t>Altamira</t>
+  </si>
+  <si>
+    <t>Pereira</t>
+  </si>
+  <si>
+    <t>55'</t>
+  </si>
+  <si>
+    <t>44"</t>
+  </si>
+  <si>
+    <t>048°</t>
+  </si>
+  <si>
+    <t>29'</t>
+  </si>
+  <si>
+    <t>55"</t>
+  </si>
+  <si>
+    <t>Capanema</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Bragança</t>
+  </si>
+  <si>
+    <t>Machado</t>
+  </si>
+  <si>
+    <t>Cametá</t>
+  </si>
+  <si>
+    <t>Belém</t>
+  </si>
+  <si>
+    <t>Silva</t>
+  </si>
+  <si>
+    <t>Afuá</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>14'</t>
+  </si>
+  <si>
+    <t>22"</t>
+  </si>
+  <si>
+    <t>19"</t>
+  </si>
+  <si>
+    <t>Almeida</t>
+  </si>
+  <si>
+    <t>Castanhal</t>
+  </si>
+  <si>
+    <t>Gonçalves</t>
+  </si>
+  <si>
+    <t>Costa</t>
+  </si>
+  <si>
+    <t>12"</t>
+  </si>
+  <si>
+    <t>047°</t>
+  </si>
+  <si>
+    <t>28'</t>
+  </si>
+  <si>
+    <t>10"</t>
+  </si>
+  <si>
+    <t>Sousa</t>
+  </si>
+  <si>
+    <t>Breves</t>
+  </si>
+  <si>
+    <t>13/08/2025</t>
+  </si>
+  <si>
+    <t>13/08/2026</t>
+  </si>
+  <si>
+    <t>13/08/2027</t>
+  </si>
+  <si>
+    <t>13/08/2028</t>
+  </si>
+  <si>
+    <t>13/08/2029</t>
+  </si>
+  <si>
+    <t>13/08/2030</t>
+  </si>
+  <si>
+    <t>13/08/2031</t>
+  </si>
+  <si>
+    <t>13/08/2032</t>
+  </si>
+  <si>
+    <t>13/08/2033</t>
+  </si>
+  <si>
+    <t>13/08/2034</t>
+  </si>
+  <si>
+    <t>13/08/2035</t>
+  </si>
+  <si>
+    <t>13/08/2036</t>
+  </si>
+  <si>
+    <t>13/08/2037</t>
+  </si>
+  <si>
+    <t>13/08/2038</t>
+  </si>
+  <si>
+    <t>13/08/2039</t>
+  </si>
+  <si>
+    <t>13/08/2040</t>
+  </si>
+  <si>
+    <t>13/08/2041</t>
+  </si>
+  <si>
+    <t>13/08/2042</t>
+  </si>
+  <si>
+    <t>13/08/2043</t>
+  </si>
+  <si>
+    <t>13/08/2044</t>
+  </si>
+  <si>
+    <t>13/08/2045</t>
+  </si>
+  <si>
+    <t>13/08/2046</t>
+  </si>
+  <si>
+    <t>13/08/2047</t>
+  </si>
+  <si>
+    <t>13/08/2048</t>
+  </si>
+  <si>
+    <t>13/08/2049</t>
+  </si>
+  <si>
+    <t>13/08/2050</t>
+  </si>
+  <si>
+    <t>13/08/2051</t>
+  </si>
+  <si>
+    <t>13/08/2052</t>
+  </si>
+  <si>
+    <t>13/08/2053</t>
+  </si>
+  <si>
+    <t>13/08/2054</t>
+  </si>
+  <si>
+    <t>PROXIMO A PA-125</t>
+  </si>
+  <si>
+    <t>PROXIMO A PA-126</t>
+  </si>
+  <si>
+    <t>PROXIMO A PA-127</t>
+  </si>
+  <si>
+    <t>PROXIMO A PA-128</t>
+  </si>
+  <si>
+    <t>PROXIMO A PA-129</t>
+  </si>
+  <si>
+    <t>PROXIMO A PA-130</t>
+  </si>
+  <si>
+    <t>PROXIMO A PA-131</t>
+  </si>
+  <si>
+    <t>PROXIMO A PA-132</t>
   </si>
 </sst>
 </file>
@@ -427,31 +715,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="16.5703125" customWidth="1"/>
     <col min="14" max="14" width="255.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +783,1961 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>67</v>
+      </c>
+      <c r="R19" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" t="s">
+        <v>68</v>
+      </c>
+      <c r="S21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" t="s">
+        <v>41</v>
+      </c>
+      <c r="S22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" t="s">
+        <v>41</v>
+      </c>
+      <c r="S23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>47</v>
+      </c>
+      <c r="R24" t="s">
+        <v>48</v>
+      </c>
+      <c r="S24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>47</v>
+      </c>
+      <c r="R25" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" t="s">
+        <v>107</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>67</v>
+      </c>
+      <c r="R26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" t="s">
+        <v>40</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>47</v>
+      </c>
+      <c r="R28" t="s">
+        <v>45</v>
+      </c>
+      <c r="S28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>47</v>
+      </c>
+      <c r="R29" t="s">
+        <v>45</v>
+      </c>
+      <c r="S29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" t="s">
+        <v>38</v>
+      </c>
+      <c r="P30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" t="s">
+        <v>41</v>
+      </c>
+      <c r="S30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>97</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" t="s">
+        <v>47</v>
+      </c>
+      <c r="S31" t="s">
+        <v>45</v>
+      </c>
+      <c r="T31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>47</v>
+      </c>
+      <c r="R33" t="s">
+        <v>48</v>
+      </c>
+      <c r="S33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" t="s">
+        <v>38</v>
+      </c>
+      <c r="P34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" t="s">
+        <v>41</v>
+      </c>
+      <c r="S35" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
